--- a/功能定义.xlsx
+++ b/功能定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,20 @@
     <t>动画类</t>
   </si>
   <si>
-    <t>顺序加载多个obj文件</t>
+    <r>
+      <t>顺序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同时加载多个obj文件</t>
+    </r>
+  </si>
+  <si>
+    <t>√</t>
   </si>
   <si>
     <t>渐变进入主界面</t>
@@ -50,9 +63,6 @@
   </si>
   <si>
     <t>清除指定obj</t>
-  </si>
-  <si>
-    <t>√</t>
   </si>
   <si>
     <t>图片预览</t>
@@ -116,7 +126,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,9 +143,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -147,8 +240,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,115 +289,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,31 +316,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,145 +484,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,26 +571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,11 +618,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,21 +659,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,7 +679,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,128 +688,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +833,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1144,7 +1165,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1187,157 +1208,161 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:7">
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:7">
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:7">
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:7">
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:7">
       <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:7">
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:7">
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:7">
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
